--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc208_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc208_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -715,10 +739,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -762,28 +786,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="3">
+      <c r="A22" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="3">
+      <c r="B22" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="3">
+      <c r="C22" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D22" t="s" s="3">
+      <c r="D22" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="3">
+      <c r="E22" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="3">
+      <c r="F22" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="3">
+      <c r="G22" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="3">
+      <c r="H22" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -808,28 +832,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="3">
+      <c r="B24" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="3">
+      <c r="C24" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="3">
+      <c r="D24" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="3">
+      <c r="E24" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="3">
+      <c r="F24" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="3">
+      <c r="G24" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="3">
+      <c r="H24" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="3">
+      <c r="I24" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1091,10 +1115,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1138,28 +1162,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="3">
+      <c r="A35" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="3">
+      <c r="B35" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="3">
+      <c r="C35" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D35" t="s" s="3">
+      <c r="D35" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="3">
+      <c r="E35" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="3">
+      <c r="F35" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="3">
+      <c r="G35" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="3">
+      <c r="H35" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1184,28 +1208,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="3">
+      <c r="B37" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="3">
+      <c r="C37" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="3">
+      <c r="D37" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="3">
+      <c r="E37" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="3">
+      <c r="F37" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="3">
+      <c r="G37" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="3">
+      <c r="H37" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="3">
+      <c r="I37" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1612,10 +1636,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J51" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="K51" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1659,28 +1683,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="3">
+      <c r="A53" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="3">
+      <c r="B53" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="3">
+      <c r="C53" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D53" t="s" s="3">
+      <c r="D53" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="3">
+      <c r="E53" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="3">
+      <c r="F53" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="3">
+      <c r="G53" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="3">
+      <c r="H53" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1705,28 +1729,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="3">
+      <c r="B55" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="3">
+      <c r="C55" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="3">
+      <c r="D55" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="3">
+      <c r="E55" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="3">
+      <c r="F55" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="3">
+      <c r="G55" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="3">
+      <c r="H55" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="3">
+      <c r="I55" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2162,10 +2186,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="J70" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K70" s="3" t="s">
+      <c r="K70" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2209,28 +2233,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="3">
+      <c r="A72" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="3">
+      <c r="B72" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="3">
+      <c r="C72" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D72" t="s" s="3">
+      <c r="D72" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="3">
+      <c r="E72" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="3">
+      <c r="F72" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="3">
+      <c r="G72" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="3">
+      <c r="H72" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2255,28 +2279,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="3">
+      <c r="B74" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="3">
+      <c r="C74" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="3">
+      <c r="D74" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="3">
+      <c r="E74" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="3">
+      <c r="F74" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="3">
+      <c r="G74" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="3">
+      <c r="H74" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="3">
+      <c r="I74" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2683,10 +2707,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="3" t="s">
+      <c r="J88" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K88" s="3" t="s">
+      <c r="K88" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2730,28 +2754,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="3">
+      <c r="A90" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="3">
+      <c r="B90" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="3">
+      <c r="C90" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D90" t="s" s="3">
+      <c r="D90" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="3">
+      <c r="E90" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="3">
+      <c r="F90" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="3">
+      <c r="G90" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="3">
+      <c r="H90" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2776,28 +2800,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="3">
+      <c r="B92" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="3">
+      <c r="C92" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="3">
+      <c r="D92" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="3">
+      <c r="E92" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="3">
+      <c r="F92" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="3">
+      <c r="G92" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="3">
+      <c r="H92" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="3">
+      <c r="I92" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2972,10 +2996,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="3" t="s">
+      <c r="J98" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K98" s="3" t="s">
+      <c r="K98" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3019,28 +3043,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="3">
+      <c r="A100" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="3">
+      <c r="B100" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="3">
+      <c r="C100" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D100" t="s" s="3">
+      <c r="D100" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="3">
+      <c r="E100" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="3">
+      <c r="F100" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="3">
+      <c r="G100" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="3">
+      <c r="H100" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3065,28 +3089,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="3">
+      <c r="B102" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="3">
+      <c r="C102" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="3">
+      <c r="D102" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="3">
+      <c r="E102" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="3">
+      <c r="F102" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="3">
+      <c r="G102" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="3">
+      <c r="H102" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="3">
+      <c r="I102" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3551,10 +3575,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="3" t="s">
+      <c r="J118" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K118" s="3" t="s">
+      <c r="K118" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3598,28 +3622,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="3">
+      <c r="A120" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="3">
+      <c r="B120" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="3">
+      <c r="C120" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D120" t="s" s="3">
+      <c r="D120" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="3">
+      <c r="E120" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="3">
+      <c r="F120" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="3">
+      <c r="G120" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="3">
+      <c r="H120" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3644,28 +3668,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="3">
+      <c r="B122" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="3">
+      <c r="C122" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="3">
+      <c r="D122" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="3">
+      <c r="E122" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="3">
+      <c r="F122" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="3">
+      <c r="G122" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="3">
+      <c r="H122" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="3">
+      <c r="I122" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3985,10 +4009,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="3" t="s">
+      <c r="J133" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K133" s="3" t="s">
+      <c r="K133" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4032,28 +4056,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="3">
+      <c r="A135" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="3">
+      <c r="B135" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="3">
+      <c r="C135" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D135" t="s" s="3">
+      <c r="D135" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="3">
+      <c r="E135" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="3">
+      <c r="F135" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="3">
+      <c r="G135" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="3">
+      <c r="H135" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4078,28 +4102,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="3">
+      <c r="B137" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="3">
+      <c r="C137" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="3">
+      <c r="D137" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="3">
+      <c r="E137" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="3">
+      <c r="F137" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="3">
+      <c r="G137" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="3">
+      <c r="H137" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="3">
+      <c r="I137" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4332,10 +4356,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="3" t="s">
+      <c r="J145" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K145" s="3" t="s">
+      <c r="K145" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4379,28 +4403,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="3">
+      <c r="A147" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="3">
+      <c r="B147" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="3">
+      <c r="C147" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D147" t="s" s="3">
+      <c r="D147" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="3">
+      <c r="E147" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="3">
+      <c r="F147" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="3">
+      <c r="G147" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="3">
+      <c r="H147" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4425,28 +4449,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="3">
+      <c r="B149" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="3">
+      <c r="C149" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="3">
+      <c r="D149" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="3">
+      <c r="E149" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="3">
+      <c r="F149" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="3">
+      <c r="G149" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="3">
+      <c r="H149" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="3">
+      <c r="I149" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4505,10 +4529,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="3" t="s">
+      <c r="J151" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K151" s="3" t="s">
+      <c r="K151" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
